--- a/data/trans_orig/P14B97-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B97-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1037A0B-EB4E-409C-8833-B886F0B8512C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B300944-3092-4168-8A63-A2A0648D65A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FCC23D0C-2FB9-42A7-950B-50D33DB8D39E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A851F82B-582A-4A0F-B344-DDF4A164D0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
   <si>
     <t>Población cuya otra enfermedad le limita 1 en 2012 (Tasa respuesta: 4,87%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>67,39%</t>
   </si>
   <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
   </si>
   <si>
     <t>43,27%</t>
   </si>
   <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
   </si>
   <si>
     <t>51,13%</t>
   </si>
   <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>32,61%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
   </si>
   <si>
     <t>56,73%</t>
   </si>
   <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
   </si>
   <si>
     <t>48,87%</t>
   </si>
   <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>40,81%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
   </si>
   <si>
     <t>42,51%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
   </si>
   <si>
     <t>41,94%</t>
   </si>
   <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
   </si>
   <si>
     <t>59,19%</t>
   </si>
   <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
   </si>
   <si>
     <t>57,49%</t>
   </si>
   <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
   </si>
   <si>
     <t>58,06%</t>
   </si>
   <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,103 +196,109 @@
     <t>46,62%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
   </si>
   <si>
     <t>37,2%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
   </si>
   <si>
     <t>41,28%</t>
   </si>
   <si>
-    <t>26,33%</t>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>58,72%</t>
   </si>
   <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
   </si>
   <si>
     <t>53,1%</t>
   </si>
   <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
   </si>
   <si>
     <t>42,3%</t>
   </si>
   <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
   </si>
   <si>
     <t>46,01%</t>
   </si>
   <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
   </si>
   <si>
     <t>46,9%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
   </si>
   <si>
     <t>53,99%</t>
   </si>
   <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -304,205 +310,205 @@
     <t>63,6%</t>
   </si>
   <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>51,18%</t>
   </si>
   <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
   </si>
   <si>
     <t>54,46%</t>
   </si>
   <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>48,82%</t>
   </si>
   <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
   </si>
   <si>
     <t>45,54%</t>
   </si>
   <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
   </si>
   <si>
     <t>45,59%</t>
   </si>
   <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
   </si>
   <si>
     <t>54,41%</t>
   </si>
   <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
+    <t>82,61%</t>
   </si>
   <si>
     <t>58,14%</t>
   </si>
   <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
   </si>
   <si>
     <t>43,8%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
   </si>
   <si>
     <t>48,14%</t>
   </si>
   <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
   </si>
   <si>
     <t>41,86%</t>
   </si>
   <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
   </si>
   <si>
     <t>56,2%</t>
   </si>
   <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
   </si>
   <si>
     <t>51,86%</t>
   </si>
   <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
   </si>
   <si>
     <t>Población cuya otra enfermedad le limita 1 en 2023 (Tasa respuesta: 10,63%)</t>
@@ -511,172 +517,169 @@
     <t>59,04%</t>
   </si>
   <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
   </si>
   <si>
     <t>69,66%</t>
   </si>
   <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
   </si>
   <si>
     <t>65,81%</t>
   </si>
   <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
   </si>
   <si>
     <t>30,34%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
   </si>
   <si>
     <t>34,19%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>56,96%</t>
   </si>
   <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
   </si>
   <si>
     <t>49,36%</t>
   </si>
   <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
   </si>
   <si>
     <t>53,02%</t>
   </si>
   <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
   </si>
   <si>
     <t>43,04%</t>
   </si>
   <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
   </si>
   <si>
     <t>50,64%</t>
   </si>
   <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
   </si>
   <si>
     <t>46,98%</t>
   </si>
   <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
   </si>
   <si>
     <t>32,21%</t>
   </si>
   <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
   <si>
     <t>38,41%</t>
   </si>
   <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
   </si>
   <si>
     <t>35,71%</t>
   </si>
   <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
   </si>
   <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>61,59%</t>
   </si>
   <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
   </si>
   <si>
     <t>64,29%</t>
   </si>
   <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
   </si>
   <si>
     <t>55,23%</t>
@@ -685,43 +688,34 @@
     <t>50,59%</t>
   </si>
   <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>44,77%</t>
   </si>
   <si>
-    <t>40,59%</t>
+    <t>40,64%</t>
   </si>
   <si>
     <t>49,41%</t>
   </si>
   <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC42EA5-4514-4C24-9560-0AD5B75DFAED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17761735-6919-4A4D-9F14-F52181C1BA7C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1648,13 +1642,13 @@
         <v>24175</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,13 +1716,13 @@
         <v>61491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -1737,13 +1731,13 @@
         <v>93742</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>144</v>
@@ -1752,13 +1746,13 @@
         <v>155233</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1767,13 @@
         <v>54313</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>119</v>
@@ -1788,13 +1782,13 @@
         <v>127859</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>172</v>
@@ -1803,13 +1797,13 @@
         <v>182172</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1859,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1884,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BBBC10-805D-4236-907B-E51FB6EE0333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8220533-9E95-464C-9213-38187EC775A7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1901,7 +1895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2008,13 +2002,13 @@
         <v>23905</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -2023,13 +2017,13 @@
         <v>53495</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -2038,13 +2032,13 @@
         <v>77399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2053,13 @@
         <v>13680</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -2074,13 +2068,13 @@
         <v>51033</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -2089,13 +2083,13 @@
         <v>64714</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2157,13 @@
         <v>44304</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -2181,10 +2175,10 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>108</v>
@@ -2193,13 +2187,13 @@
         <v>117660</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2208,13 @@
         <v>32480</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>90</v>
@@ -2232,10 +2226,10 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>121</v>
@@ -2244,13 +2238,13 @@
         <v>128645</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2312,13 @@
         <v>8130</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2333,13 +2327,13 @@
         <v>5521</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2348,13 +2342,13 @@
         <v>13651</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2363,13 @@
         <v>8810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -2384,13 +2378,13 @@
         <v>22668</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -2399,13 +2393,13 @@
         <v>31478</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2467,13 @@
         <v>76339</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -2488,13 +2482,13 @@
         <v>132372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -2503,13 +2497,13 @@
         <v>208711</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2518,13 @@
         <v>54970</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -2539,13 +2533,13 @@
         <v>169867</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>210</v>
@@ -2554,13 +2548,13 @@
         <v>224836</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,7 +2610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2635,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73DA893-FE2C-4518-A1EF-CAEFF3305CAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79390817-6BC0-499D-B8FF-F5028C3074D8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2652,7 +2646,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2759,13 +2753,13 @@
         <v>47059</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>179</v>
@@ -2774,13 +2768,13 @@
         <v>97492</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>235</v>
@@ -2789,13 +2783,13 @@
         <v>144551</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2804,13 @@
         <v>32648</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>77</v>
@@ -2825,13 +2819,13 @@
         <v>42461</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>125</v>
@@ -2840,13 +2834,13 @@
         <v>75109</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2908,13 @@
         <v>95627</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -2929,13 +2923,13 @@
         <v>88950</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>230</v>
@@ -2944,13 +2938,13 @@
         <v>184577</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2959,13 @@
         <v>72260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>131</v>
@@ -2980,13 +2974,13 @@
         <v>91261</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>206</v>
@@ -2995,13 +2989,13 @@
         <v>163521</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3063,13 @@
         <v>14177</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3084,13 +3078,13 @@
         <v>21943</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3099,13 +3093,13 @@
         <v>36120</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3114,13 @@
         <v>29841</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
@@ -3135,13 +3129,13 @@
         <v>35179</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>83</v>
@@ -3150,13 +3144,13 @@
         <v>65021</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3218,13 @@
         <v>156863</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>343</v>
@@ -3239,13 +3233,13 @@
         <v>208383</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>512</v>
@@ -3254,7 +3248,7 @@
         <v>365247</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>217</v>
@@ -3275,13 +3269,13 @@
         <v>134749</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>255</v>
@@ -3290,13 +3284,13 @@
         <v>168903</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>414</v>
@@ -3305,13 +3299,13 @@
         <v>303652</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3361,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B97-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B97-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B300944-3092-4168-8A63-A2A0648D65A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{705AE44D-2FD8-46B8-B7CD-1C31768FFBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A851F82B-582A-4A0F-B344-DDF4A164D0BA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5F80B92E-3FF3-4CDC-925D-9C33AC120F34}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
   <si>
     <t>Población cuya otra enfermedad le limita 1 en 2012 (Tasa respuesta: 4,87%)</t>
   </si>
@@ -76,640 +76,646 @@
     <t>67,39%</t>
   </si>
   <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya otra enfermedad le limita 1 en 2016 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>Población cuya otra enfermedad le limita 1 en 2023 (Tasa respuesta: 10,63%)</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
   </si>
   <si>
     <t>54,6%</t>
   </si>
   <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>56,73%</t>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
   </si>
   <si>
     <t>45,4%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya otra enfermedad le limita 1 en 2015 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>Población cuya otra enfermedad le limita 1 en 2023 (Tasa respuesta: 10,63%)</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
   </si>
   <si>
     <t>41,66%</t>
@@ -1127,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17761735-6919-4A4D-9F14-F52181C1BA7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F750A16-CFF1-47E3-94DC-50A2A4B8985F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1878,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8220533-9E95-464C-9213-38187EC775A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD61AF89-F661-4974-8379-DCA250300F9C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2348,7 +2354,7 @@
         <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2369,13 @@
         <v>8810</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -2378,13 +2384,13 @@
         <v>22668</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -2393,13 +2399,13 @@
         <v>31478</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2473,13 @@
         <v>76339</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -2482,13 +2488,13 @@
         <v>132372</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -2497,13 +2503,13 @@
         <v>208711</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2524,13 @@
         <v>54970</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -2533,13 +2539,13 @@
         <v>169867</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>210</v>
@@ -2548,13 +2554,13 @@
         <v>224836</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79390817-6BC0-499D-B8FF-F5028C3074D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D9B5D6-3E03-461D-8F7C-EE51F76A32B7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2646,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2753,13 +2759,13 @@
         <v>47059</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>179</v>
@@ -2768,13 +2774,13 @@
         <v>97492</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>235</v>
@@ -2783,13 +2789,13 @@
         <v>144551</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2810,13 @@
         <v>32648</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>77</v>
@@ -2819,13 +2825,13 @@
         <v>42461</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>125</v>
@@ -2834,13 +2840,13 @@
         <v>75109</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2914,13 @@
         <v>95627</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -2923,13 +2929,13 @@
         <v>88950</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>230</v>
@@ -2938,13 +2944,13 @@
         <v>184577</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2965,13 @@
         <v>72260</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>131</v>
@@ -2974,13 +2980,13 @@
         <v>91261</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>206</v>
@@ -2989,13 +2995,13 @@
         <v>163521</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3069,13 @@
         <v>14177</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3078,13 +3084,13 @@
         <v>21943</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3093,13 +3099,13 @@
         <v>36120</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3120,13 @@
         <v>29841</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
@@ -3129,13 +3135,13 @@
         <v>35179</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>83</v>
@@ -3144,13 +3150,13 @@
         <v>65021</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3224,13 @@
         <v>156863</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>343</v>
@@ -3233,13 +3239,13 @@
         <v>208383</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>512</v>
@@ -3248,7 +3254,7 @@
         <v>365247</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>217</v>
@@ -3269,13 +3275,13 @@
         <v>134749</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>255</v>
@@ -3284,13 +3290,13 @@
         <v>168903</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>414</v>
@@ -3299,13 +3305,13 @@
         <v>303652</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
